--- a/translation/xlsx/_tsum_022.xlsx
+++ b/translation/xlsx/_tsum_022.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="3574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="3575">
   <si>
     <t>actor</t>
   </si>
@@ -6522,7 +6522,7 @@
     <t>The red fluid splattered on the wall... was Mion's.</t>
   </si>
   <si>
-    <t xml:space="preserve">벽 한 켠에 흩뿌려진 새빨간 피는... 내가 몇 번이나 두들겨 부숴버린 머리에서 나온 튄 것이었다. </t>
+    <t xml:space="preserve">벽 한 켠에 흩뿌려진 새빨간 피는... 내가 몇 번이나 두들겨 부순 머리에서 튄 것이었다. </t>
   </si>
   <si>
     <t xml:space="preserve">벽 한 켠에 흩뿌려진 새빨간 것은... 내가 몇 번이나 두들겨 부순 머리에서 쏟아진 것이었다. </t>
@@ -8175,15 +8175,18 @@
     <t>\"......Keiichi, you noticed your sin.</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;size=-6&gt;\"......케이이치는 스스로 자신의 죄를 깨달았어요. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\"......케이이치는 스스로 자신의 죄를 깨달은 것이에요. </t>
+  </si>
+  <si>
+    <t>......케이치는 스스로 자신의 죄를 깨달았습니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">\"......케이이치는 스스로 자신의 죄를 깨달았어요. </t>
   </si>
   <si>
-    <t xml:space="preserve">\"......케이이치는 스스로 자신의 죄를 깨달은 것이에요. </t>
-  </si>
-  <si>
-    <t>......케이치는 스스로 자신의 죄를 깨달았습니다.</t>
-  </si>
-  <si>
     <t>それは…とても偉くて、……普通ではありえないことなのです。</t>
   </si>
   <si>
@@ -8262,7 +8265,7 @@
     <t>\"...This is a miracle.</t>
   </si>
   <si>
-    <t xml:space="preserve">\"...그래, 이건 분명 기적이야. </t>
+    <t xml:space="preserve">&lt;size=-8&gt;\"...그래, 이건 분명 기적이야. </t>
   </si>
   <si>
     <t xml:space="preserve">\"......나는 이것이 기적이라는 것을 알아. </t>
@@ -9543,7 +9546,7 @@
     <t>That's why...... I kind of gave up on Rena last night.</t>
   </si>
   <si>
-    <t xml:space="preserve">그래서...... 더 이상 레나가 어떻게 되든 알 바 아니다. 어젯밤엔 그렇게 생각했어. </t>
+    <t xml:space="preserve">&lt;size=-4&gt;그래서...... 더 이상 레나가 어떻게 되든 알 바 아니다. 어젯밤엔 그렇게 생각했어. </t>
   </si>
   <si>
     <t xml:space="preserve">그래서.........더 이상 레나가 어떻게 되든 알 바 아니라고 어젯밤에 생각했어. </t>
@@ -23787,7 +23790,7 @@
       <c r="C556" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="D556" s="4" t="s">
+      <c r="D556" s="7" t="s">
         <v>2719</v>
       </c>
       <c r="G556" s="2"/>
@@ -23799,73 +23802,73 @@
         <v>2721</v>
       </c>
       <c r="K556" s="4" t="s">
-        <v>2719</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="557" ht="15.75" customHeight="1">
       <c r="B557" s="7" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="G557" s="2"/>
       <c r="H557" s="5"/>
       <c r="I557" s="4" t="s">
+        <v>2726</v>
+      </c>
+      <c r="J557" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="K557" s="4" t="s">
         <v>2725</v>
-      </c>
-      <c r="J557" s="1" t="s">
-        <v>2726</v>
-      </c>
-      <c r="K557" s="4" t="s">
-        <v>2724</v>
       </c>
     </row>
     <row r="558" ht="15.75" customHeight="1">
       <c r="B558" s="1" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="D558" s="6" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="G558" s="2"/>
       <c r="H558" s="5"/>
       <c r="I558" s="6" t="s">
+        <v>2731</v>
+      </c>
+      <c r="J558" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="K558" s="6" t="s">
         <v>2730</v>
-      </c>
-      <c r="J558" s="1" t="s">
-        <v>2731</v>
-      </c>
-      <c r="K558" s="6" t="s">
-        <v>2729</v>
       </c>
     </row>
     <row r="559" ht="15.75" customHeight="1">
       <c r="B559" s="7" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="D559" s="6" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="G559" s="2"/>
       <c r="H559" s="5"/>
       <c r="I559" s="6" t="s">
+        <v>2736</v>
+      </c>
+      <c r="J559" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="K559" s="6" t="s">
         <v>2735</v>
-      </c>
-      <c r="J559" s="1" t="s">
-        <v>2736</v>
-      </c>
-      <c r="K559" s="6" t="s">
-        <v>2734</v>
       </c>
     </row>
     <row r="560" ht="15.75" customHeight="1">
@@ -23873,24 +23876,24 @@
         <v>43</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="D560" s="6" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="G560" s="2"/>
       <c r="H560" s="5"/>
       <c r="I560" s="6" t="s">
+        <v>2741</v>
+      </c>
+      <c r="J560" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="K560" s="6" t="s">
         <v>2740</v>
-      </c>
-      <c r="J560" s="1" t="s">
-        <v>2741</v>
-      </c>
-      <c r="K560" s="6" t="s">
-        <v>2739</v>
       </c>
     </row>
     <row r="561" ht="15.75" customHeight="1">
@@ -23898,24 +23901,24 @@
         <v>54</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="D561" s="6" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="G561" s="2"/>
       <c r="H561" s="5"/>
       <c r="I561" s="6" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="J561" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="K561" s="6" t="s">
         <v>2745</v>
-      </c>
-      <c r="K561" s="6" t="s">
-        <v>2744</v>
       </c>
     </row>
     <row r="562" ht="15.75" customHeight="1">
@@ -23923,156 +23926,156 @@
         <v>43</v>
       </c>
       <c r="B562" s="7" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="D562" s="10" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="G562" s="9"/>
       <c r="H562" s="12"/>
       <c r="I562" s="6" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="J562" s="1" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="K562" s="10" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="563" ht="15.75" customHeight="1">
       <c r="B563" s="1" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="D563" s="10" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="G563" s="2"/>
       <c r="H563" s="5"/>
       <c r="I563" s="6" t="s">
+        <v>2756</v>
+      </c>
+      <c r="J563" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="K563" s="10" t="s">
         <v>2755</v>
-      </c>
-      <c r="J563" s="1" t="s">
-        <v>2756</v>
-      </c>
-      <c r="K563" s="10" t="s">
-        <v>2754</v>
       </c>
     </row>
     <row r="564" ht="15.75" customHeight="1">
       <c r="B564" s="7" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="D564" s="6" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="G564" s="2"/>
       <c r="H564" s="5"/>
       <c r="I564" s="6" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="J564" s="1" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="K564" s="6" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="565" ht="15.75" customHeight="1">
       <c r="B565" s="1" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="D565" s="6" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="G565" s="2"/>
       <c r="H565" s="5"/>
       <c r="I565" s="6" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="J565" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="K565" s="6" t="s">
         <v>2766</v>
-      </c>
-      <c r="K565" s="6" t="s">
-        <v>2765</v>
       </c>
     </row>
     <row r="566" ht="15.75" customHeight="1">
       <c r="B566" s="7" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="D566" s="6" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="G566" s="2"/>
       <c r="H566" s="5"/>
       <c r="I566" s="6" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="J566" s="1" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="K566" s="6" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="567" ht="15.75" customHeight="1">
       <c r="B567" s="1" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="D567" s="6" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="G567" s="2"/>
       <c r="H567" s="5"/>
       <c r="I567" s="6" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="J567" s="1" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="K567" s="6" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="568" ht="15.75" customHeight="1">
       <c r="B568" s="7" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="D568" s="6" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="G568" s="2"/>
       <c r="H568" s="5"/>
       <c r="I568" s="6" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="J568" s="1" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="K568" s="6" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="569" ht="15.75" customHeight="1">
@@ -24080,68 +24083,68 @@
         <v>43</v>
       </c>
       <c r="B569" s="7" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="D569" s="6" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="G569" s="2"/>
       <c r="H569" s="5"/>
       <c r="I569" s="6" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="J569" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="K569" s="6" t="s">
         <v>2789</v>
-      </c>
-      <c r="K569" s="6" t="s">
-        <v>2788</v>
       </c>
     </row>
     <row r="570" ht="15.75" customHeight="1">
       <c r="B570" s="1" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="D570" s="6" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="G570" s="2"/>
       <c r="H570" s="5"/>
       <c r="I570" s="6" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="J570" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="K570" s="6" t="s">
         <v>2793</v>
-      </c>
-      <c r="K570" s="6" t="s">
-        <v>2792</v>
       </c>
     </row>
     <row r="571" ht="15.75" customHeight="1">
       <c r="B571" s="7" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="D571" s="6" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="G571" s="2"/>
       <c r="H571" s="5"/>
       <c r="I571" s="6" t="s">
+        <v>2798</v>
+      </c>
+      <c r="J571" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="K571" s="6" t="s">
         <v>2797</v>
-      </c>
-      <c r="J571" s="1" t="s">
-        <v>2798</v>
-      </c>
-      <c r="K571" s="6" t="s">
-        <v>2796</v>
       </c>
     </row>
     <row r="572" ht="15.75" customHeight="1">
@@ -24149,90 +24152,90 @@
         <v>54</v>
       </c>
       <c r="B572" s="7" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="D572" s="6" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="G572" s="2"/>
       <c r="H572" s="5"/>
       <c r="I572" s="6" t="s">
+        <v>2803</v>
+      </c>
+      <c r="J572" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="K572" s="6" t="s">
         <v>2802</v>
-      </c>
-      <c r="J572" s="1" t="s">
-        <v>2803</v>
-      </c>
-      <c r="K572" s="6" t="s">
-        <v>2801</v>
       </c>
     </row>
     <row r="573" ht="15.75" customHeight="1">
       <c r="B573" s="7" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="D573" s="6" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="G573" s="2"/>
       <c r="H573" s="5"/>
       <c r="I573" s="6" t="s">
+        <v>2808</v>
+      </c>
+      <c r="J573" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="K573" s="6" t="s">
         <v>2807</v>
-      </c>
-      <c r="J573" s="1" t="s">
-        <v>2808</v>
-      </c>
-      <c r="K573" s="6" t="s">
-        <v>2806</v>
       </c>
     </row>
     <row r="574" ht="15.75" customHeight="1">
       <c r="B574" s="4" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="D574" s="6" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="G574" s="2"/>
       <c r="H574" s="5"/>
       <c r="I574" s="6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J574" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="K574" s="6" t="s">
         <v>2812</v>
-      </c>
-      <c r="J574" s="1" t="s">
-        <v>2813</v>
-      </c>
-      <c r="K574" s="6" t="s">
-        <v>2811</v>
       </c>
     </row>
     <row r="575" ht="15.75" customHeight="1">
       <c r="B575" s="4" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="D575" s="6" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="G575" s="2"/>
       <c r="H575" s="5"/>
       <c r="I575" s="6" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="J575" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="K575" s="6" t="s">
         <v>2817</v>
-      </c>
-      <c r="K575" s="6" t="s">
-        <v>2816</v>
       </c>
     </row>
     <row r="576" ht="15.75" customHeight="1">
@@ -24240,90 +24243,90 @@
         <v>54</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="D576" s="6" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="G576" s="2"/>
       <c r="H576" s="5"/>
       <c r="I576" s="6" t="s">
+        <v>2822</v>
+      </c>
+      <c r="J576" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="K576" s="6" t="s">
         <v>2821</v>
-      </c>
-      <c r="J576" s="1" t="s">
-        <v>2822</v>
-      </c>
-      <c r="K576" s="6" t="s">
-        <v>2820</v>
       </c>
     </row>
     <row r="577" ht="15.75" customHeight="1">
       <c r="B577" s="4" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="D577" s="6" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="G577" s="2"/>
       <c r="H577" s="5"/>
       <c r="I577" s="6" t="s">
+        <v>2827</v>
+      </c>
+      <c r="J577" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="K577" s="6" t="s">
         <v>2826</v>
-      </c>
-      <c r="J577" s="1" t="s">
-        <v>2827</v>
-      </c>
-      <c r="K577" s="6" t="s">
-        <v>2825</v>
       </c>
     </row>
     <row r="578" ht="15.75" customHeight="1">
       <c r="B578" s="4" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="D578" s="6" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="G578" s="2"/>
       <c r="H578" s="5"/>
       <c r="I578" s="6" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="J578" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="K578" s="6" t="s">
         <v>2831</v>
-      </c>
-      <c r="K578" s="6" t="s">
-        <v>2830</v>
       </c>
     </row>
     <row r="579" ht="15.75" customHeight="1">
       <c r="B579" s="7" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="D579" s="6" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="G579" s="2"/>
       <c r="H579" s="5"/>
       <c r="I579" s="6" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="J579" s="1" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="K579" s="6" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="580" ht="15.75" customHeight="1">
@@ -24331,90 +24334,90 @@
         <v>54</v>
       </c>
       <c r="B580" s="7" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="D580" s="6" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="G580" s="2"/>
       <c r="H580" s="5"/>
       <c r="I580" s="6" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="J580" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="K580" s="6" t="s">
         <v>2841</v>
-      </c>
-      <c r="K580" s="6" t="s">
-        <v>2840</v>
       </c>
     </row>
     <row r="581" ht="15.75" customHeight="1">
       <c r="B581" s="4" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="D581" s="6" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="G581" s="2"/>
       <c r="H581" s="5"/>
       <c r="I581" s="6" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="J581" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="K581" s="6" t="s">
         <v>2845</v>
-      </c>
-      <c r="K581" s="6" t="s">
-        <v>2844</v>
       </c>
     </row>
     <row r="582" ht="15.75" customHeight="1">
       <c r="B582" s="4" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="D582" s="6" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="G582" s="2"/>
       <c r="H582" s="5"/>
       <c r="I582" s="6" t="s">
+        <v>2850</v>
+      </c>
+      <c r="J582" s="4" t="s">
+        <v>2851</v>
+      </c>
+      <c r="K582" s="6" t="s">
         <v>2849</v>
-      </c>
-      <c r="J582" s="4" t="s">
-        <v>2850</v>
-      </c>
-      <c r="K582" s="6" t="s">
-        <v>2848</v>
       </c>
     </row>
     <row r="583" ht="15.75" customHeight="1">
       <c r="B583" s="7" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="D583" s="6" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="G583" s="2"/>
       <c r="H583" s="5"/>
       <c r="I583" s="6" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="J583" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="K583" s="6" t="s">
         <v>2854</v>
-      </c>
-      <c r="K583" s="6" t="s">
-        <v>2853</v>
       </c>
     </row>
     <row r="584" ht="15.75" customHeight="1">
@@ -24422,274 +24425,274 @@
         <v>54</v>
       </c>
       <c r="B584" s="7" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="D584" s="6" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="G584" s="2"/>
       <c r="H584" s="5"/>
       <c r="I584" s="6" t="s">
+        <v>2859</v>
+      </c>
+      <c r="J584" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="K584" s="6" t="s">
         <v>2858</v>
-      </c>
-      <c r="J584" s="1" t="s">
-        <v>2859</v>
-      </c>
-      <c r="K584" s="6" t="s">
-        <v>2857</v>
       </c>
     </row>
     <row r="585" ht="15.75" customHeight="1">
       <c r="B585" s="7" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="D585" s="6" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="G585" s="2"/>
       <c r="H585" s="5"/>
       <c r="I585" s="6" t="s">
+        <v>2864</v>
+      </c>
+      <c r="J585" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="K585" s="6" t="s">
         <v>2863</v>
-      </c>
-      <c r="J585" s="1" t="s">
-        <v>2864</v>
-      </c>
-      <c r="K585" s="6" t="s">
-        <v>2862</v>
       </c>
     </row>
     <row r="586" ht="15.75" customHeight="1">
       <c r="B586" s="7" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="D586" s="6" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="G586" s="2"/>
       <c r="H586" s="5"/>
       <c r="I586" s="6" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="J586" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K586" s="6" t="s">
         <v>2868</v>
-      </c>
-      <c r="K586" s="6" t="s">
-        <v>2867</v>
       </c>
     </row>
     <row r="587" ht="15.75" customHeight="1">
       <c r="B587" s="1" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="D587" s="6" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="G587" s="2"/>
       <c r="H587" s="5"/>
       <c r="I587" s="6" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="J587" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="K587" s="6" t="s">
         <v>2872</v>
-      </c>
-      <c r="K587" s="6" t="s">
-        <v>2871</v>
       </c>
     </row>
     <row r="588" ht="15.75" customHeight="1">
       <c r="B588" s="7" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="D588" s="6" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="G588" s="2"/>
       <c r="H588" s="5"/>
       <c r="I588" s="6" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="J588" s="4" t="s">
+        <v>2877</v>
+      </c>
+      <c r="K588" s="6" t="s">
         <v>2876</v>
-      </c>
-      <c r="K588" s="6" t="s">
-        <v>2875</v>
       </c>
     </row>
     <row r="589" ht="15.75" customHeight="1">
       <c r="B589" s="1" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="D589" s="6" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="G589" s="2"/>
       <c r="H589" s="5"/>
       <c r="I589" s="6" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="J589" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="K589" s="6" t="s">
         <v>2880</v>
-      </c>
-      <c r="K589" s="6" t="s">
-        <v>2879</v>
       </c>
     </row>
     <row r="590" ht="15.75" customHeight="1">
       <c r="B590" s="7" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="D590" s="6" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="G590" s="2"/>
       <c r="H590" s="5"/>
       <c r="I590" s="6" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="J590" s="4" t="s">
+        <v>2885</v>
+      </c>
+      <c r="K590" s="6" t="s">
         <v>2884</v>
-      </c>
-      <c r="K590" s="6" t="s">
-        <v>2883</v>
       </c>
     </row>
     <row r="591" ht="15.75" customHeight="1">
       <c r="B591" s="7" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="D591" s="6" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="G591" s="2"/>
       <c r="H591" s="5"/>
       <c r="I591" s="6" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="J591" s="1" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="K591" s="6" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="592" ht="15.75" customHeight="1">
       <c r="B592" s="7" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="D592" s="6" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="G592" s="2"/>
       <c r="H592" s="5"/>
       <c r="I592" s="6" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="J592" s="1" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="K592" s="6" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="593" ht="15.75" customHeight="1">
       <c r="B593" s="1" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="D593" s="6" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="G593" s="2"/>
       <c r="H593" s="5"/>
       <c r="I593" s="6" t="s">
+        <v>2901</v>
+      </c>
+      <c r="J593" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="K593" s="6" t="s">
         <v>2900</v>
-      </c>
-      <c r="J593" s="1" t="s">
-        <v>2901</v>
-      </c>
-      <c r="K593" s="6" t="s">
-        <v>2899</v>
       </c>
     </row>
     <row r="594" ht="15.75" customHeight="1">
       <c r="B594" s="7" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="D594" s="6" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="G594" s="2"/>
       <c r="H594" s="5"/>
       <c r="I594" s="6" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="J594" s="1" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="K594" s="6" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="595" ht="15.75" customHeight="1">
       <c r="B595" s="7" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="D595" s="6" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="G595" s="2"/>
       <c r="H595" s="5"/>
       <c r="I595" s="6" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J595" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="K595" s="6" t="s">
         <v>2911</v>
-      </c>
-      <c r="J595" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="K595" s="6" t="s">
-        <v>2910</v>
       </c>
     </row>
     <row r="596" ht="15.75" customHeight="1">
       <c r="B596" s="1" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="D596" s="6" t="s">
         <v>1872</v>
@@ -24700,7 +24703,7 @@
         <v>1873</v>
       </c>
       <c r="J596" s="1" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="K596" s="6" t="s">
         <v>1872</v>
@@ -24708,222 +24711,222 @@
     </row>
     <row r="597" ht="15.75" customHeight="1">
       <c r="B597" s="7" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="D597" s="8" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="G597" s="8"/>
       <c r="H597" s="5"/>
       <c r="I597" s="8" t="s">
+        <v>2920</v>
+      </c>
+      <c r="J597" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="K597" s="8" t="s">
         <v>2919</v>
-      </c>
-      <c r="J597" s="1" t="s">
-        <v>2920</v>
-      </c>
-      <c r="K597" s="8" t="s">
-        <v>2918</v>
       </c>
     </row>
     <row r="598" ht="15.75" customHeight="1">
       <c r="B598" s="7" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="D598" s="6" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="G598" s="2"/>
       <c r="H598" s="5"/>
       <c r="I598" s="6" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="J598" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="K598" s="6" t="s">
         <v>2924</v>
-      </c>
-      <c r="K598" s="6" t="s">
-        <v>2923</v>
       </c>
     </row>
     <row r="599" ht="15.75" customHeight="1">
       <c r="B599" s="1" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="D599" s="6" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="G599" s="2"/>
       <c r="H599" s="5"/>
       <c r="I599" s="6" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="J599" s="1" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="K599" s="6" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="600" ht="15.75" customHeight="1">
       <c r="B600" s="7" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="G600" s="2"/>
       <c r="H600" s="5"/>
       <c r="I600" s="4" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="J600" s="1" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="K600" s="4" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="601" ht="15.75" customHeight="1">
       <c r="B601" s="7" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="D601" s="4" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="G601" s="2"/>
       <c r="H601" s="5"/>
       <c r="I601" s="4" t="s">
+        <v>2938</v>
+      </c>
+      <c r="J601" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="K601" s="4" t="s">
         <v>2937</v>
-      </c>
-      <c r="J601" s="1" t="s">
-        <v>2938</v>
-      </c>
-      <c r="K601" s="4" t="s">
-        <v>2936</v>
       </c>
     </row>
     <row r="602" ht="15.75" customHeight="1">
       <c r="B602" s="7" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="D602" s="4" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="G602" s="2"/>
       <c r="H602" s="5"/>
       <c r="I602" s="4" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="J602" s="1" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="K602" s="4" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="603" ht="15.75" customHeight="1">
       <c r="B603" s="1" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="D603" s="6" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="G603" s="2"/>
       <c r="H603" s="5"/>
       <c r="I603" s="6" t="s">
+        <v>2949</v>
+      </c>
+      <c r="J603" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="K603" s="6" t="s">
         <v>2948</v>
-      </c>
-      <c r="J603" s="1" t="s">
-        <v>2949</v>
-      </c>
-      <c r="K603" s="6" t="s">
-        <v>2947</v>
       </c>
     </row>
     <row r="604" ht="15.75" customHeight="1">
       <c r="B604" s="7" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="D604" s="8" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="G604" s="2"/>
       <c r="H604" s="5"/>
       <c r="I604" s="8" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="J604" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="K604" s="8" t="s">
         <v>2953</v>
-      </c>
-      <c r="K604" s="8" t="s">
-        <v>2952</v>
       </c>
     </row>
     <row r="605" ht="15.75" customHeight="1">
       <c r="B605" s="1" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="D605" s="6" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="G605" s="2"/>
       <c r="H605" s="5"/>
       <c r="I605" s="6" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="J605" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="K605" s="6" t="s">
         <v>2957</v>
-      </c>
-      <c r="K605" s="6" t="s">
-        <v>2956</v>
       </c>
     </row>
     <row r="606" ht="15.75" customHeight="1">
       <c r="B606" s="1" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="G606" s="2"/>
       <c r="H606" s="5"/>
       <c r="I606" s="4" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="J606" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="K606" s="4" t="s">
         <v>2961</v>
-      </c>
-      <c r="K606" s="4" t="s">
-        <v>2960</v>
       </c>
     </row>
     <row r="607" ht="15.75" customHeight="1">
@@ -24931,354 +24934,354 @@
         <v>1480</v>
       </c>
       <c r="B607" s="7" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="D607" s="6" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="G607" s="2"/>
       <c r="H607" s="5"/>
       <c r="I607" s="6" t="s">
+        <v>2966</v>
+      </c>
+      <c r="J607" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="K607" s="6" t="s">
         <v>2965</v>
-      </c>
-      <c r="J607" s="1" t="s">
-        <v>2966</v>
-      </c>
-      <c r="K607" s="6" t="s">
-        <v>2964</v>
       </c>
     </row>
     <row r="608" ht="15.75" customHeight="1">
       <c r="B608" s="1" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="D608" s="8" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="G608" s="2"/>
       <c r="H608" s="5"/>
       <c r="I608" s="8" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="J608" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="K608" s="8" t="s">
         <v>2970</v>
-      </c>
-      <c r="K608" s="8" t="s">
-        <v>2969</v>
       </c>
     </row>
     <row r="609" ht="15.75" customHeight="1">
       <c r="B609" s="4" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="D609" s="6" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="G609" s="2"/>
       <c r="H609" s="5"/>
       <c r="I609" s="6" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="J609" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="K609" s="6" t="s">
         <v>2974</v>
-      </c>
-      <c r="K609" s="6" t="s">
-        <v>2973</v>
       </c>
     </row>
     <row r="610" ht="15.75" customHeight="1">
       <c r="B610" s="4" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="D610" s="6" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="G610" s="2"/>
       <c r="H610" s="5"/>
       <c r="I610" s="6" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="J610" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="K610" s="6" t="s">
         <v>2978</v>
-      </c>
-      <c r="K610" s="6" t="s">
-        <v>2977</v>
       </c>
     </row>
     <row r="611" ht="15.75" customHeight="1">
       <c r="B611" s="4" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="D611" s="6" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="G611" s="2"/>
       <c r="H611" s="5"/>
       <c r="I611" s="6" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="J611" s="1" t="s">
+        <v>2983</v>
+      </c>
+      <c r="K611" s="6" t="s">
         <v>2982</v>
-      </c>
-      <c r="K611" s="6" t="s">
-        <v>2981</v>
       </c>
     </row>
     <row r="612" ht="15.75" customHeight="1">
       <c r="B612" s="4" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="D612" s="6" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="G612" s="2"/>
       <c r="H612" s="5"/>
       <c r="I612" s="6" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="J612" s="1" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="K612" s="6" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="613" ht="15.75" customHeight="1">
       <c r="B613" s="4" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="D613" s="6" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="G613" s="2"/>
       <c r="H613" s="5"/>
       <c r="I613" s="6" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="J613" s="1" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="K613" s="6" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="614" ht="15.75" customHeight="1">
       <c r="B614" s="7" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="D614" s="6" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="G614" s="2"/>
       <c r="H614" s="5"/>
       <c r="I614" s="6" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J614" s="1" t="s">
+        <v>3000</v>
+      </c>
+      <c r="K614" s="6" t="s">
         <v>2998</v>
-      </c>
-      <c r="J614" s="1" t="s">
-        <v>2999</v>
-      </c>
-      <c r="K614" s="6" t="s">
-        <v>2997</v>
       </c>
     </row>
     <row r="615" ht="15.75" customHeight="1">
       <c r="B615" s="1" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="D615" s="6" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="G615" s="2"/>
       <c r="H615" s="5"/>
       <c r="I615" s="6" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="J615" s="1" t="s">
+        <v>3004</v>
+      </c>
+      <c r="K615" s="6" t="s">
         <v>3003</v>
-      </c>
-      <c r="K615" s="6" t="s">
-        <v>3002</v>
       </c>
     </row>
     <row r="616" ht="15.75" customHeight="1">
       <c r="B616" s="1" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="D616" s="6" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="G616" s="2"/>
       <c r="H616" s="5"/>
       <c r="I616" s="6" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="J616" s="1" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="K616" s="6" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="617" ht="15.75" customHeight="1">
       <c r="B617" s="1" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="D617" s="6" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="G617" s="2"/>
       <c r="H617" s="5"/>
       <c r="I617" s="6" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="J617" s="1" t="s">
+        <v>3011</v>
+      </c>
+      <c r="K617" s="6" t="s">
         <v>3010</v>
-      </c>
-      <c r="K617" s="6" t="s">
-        <v>3009</v>
       </c>
     </row>
     <row r="618" ht="15.75" customHeight="1">
       <c r="B618" s="1" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="D618" s="4" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="G618" s="2"/>
       <c r="H618" s="5"/>
       <c r="I618" s="4" t="s">
+        <v>3015</v>
+      </c>
+      <c r="J618" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="K618" s="4" t="s">
         <v>3014</v>
-      </c>
-      <c r="J618" s="1" t="s">
-        <v>3015</v>
-      </c>
-      <c r="K618" s="4" t="s">
-        <v>3013</v>
       </c>
     </row>
     <row r="619" ht="15.75" customHeight="1">
       <c r="B619" s="1" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="D619" s="4" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="G619" s="2"/>
       <c r="H619" s="5"/>
       <c r="I619" s="4" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="J619" s="1" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="K619" s="4" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="620" ht="15.75" customHeight="1">
       <c r="B620" s="4" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="D620" s="6" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="G620" s="2"/>
       <c r="H620" s="5"/>
       <c r="I620" s="6" t="s">
+        <v>3022</v>
+      </c>
+      <c r="J620" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="K620" s="6" t="s">
         <v>3021</v>
-      </c>
-      <c r="J620" s="1" t="s">
-        <v>3022</v>
-      </c>
-      <c r="K620" s="6" t="s">
-        <v>3020</v>
       </c>
     </row>
     <row r="621" ht="15.75" customHeight="1">
       <c r="B621" s="7" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D621" s="6" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="G621" s="2"/>
       <c r="H621" s="5"/>
       <c r="I621" s="6" t="s">
+        <v>3027</v>
+      </c>
+      <c r="J621" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K621" s="6" t="s">
         <v>3026</v>
-      </c>
-      <c r="J621" s="1" t="s">
-        <v>3027</v>
-      </c>
-      <c r="K621" s="6" t="s">
-        <v>3025</v>
       </c>
     </row>
     <row r="622" ht="15.75" customHeight="1">
       <c r="B622" s="4" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="D622" s="11" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="G622" s="2"/>
       <c r="H622" s="5"/>
       <c r="I622" s="6" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="J622" s="1" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="K622" s="11" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="623" ht="15.75" customHeight="1">
@@ -25286,288 +25289,288 @@
         <v>54</v>
       </c>
       <c r="B623" s="7" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="D623" s="6" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="G623" s="2"/>
       <c r="H623" s="5"/>
       <c r="I623" s="6" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="J623" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="K623" s="6" t="s">
         <v>3038</v>
-      </c>
-      <c r="K623" s="6" t="s">
-        <v>3037</v>
       </c>
     </row>
     <row r="624" ht="15.75" customHeight="1">
       <c r="B624" s="7" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="D624" s="6" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="G624" s="2"/>
       <c r="H624" s="5"/>
       <c r="I624" s="6" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="J624" s="1" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="K624" s="6" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="625" ht="15.75" customHeight="1">
       <c r="B625" s="7" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="D625" s="6" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="G625" s="9"/>
       <c r="H625" s="5"/>
       <c r="I625" s="6" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="J625" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="K625" s="6" t="s">
         <v>3049</v>
-      </c>
-      <c r="K625" s="6" t="s">
-        <v>3048</v>
       </c>
     </row>
     <row r="626" ht="15.75" customHeight="1">
       <c r="B626" s="4" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="D626" s="6" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="G626" s="2"/>
       <c r="H626" s="5"/>
       <c r="I626" s="6" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="J626" s="1" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="K626" s="6" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="627" ht="15.75" customHeight="1">
       <c r="B627" s="4" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="D627" s="6" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="G627" s="2"/>
       <c r="H627" s="5"/>
       <c r="I627" s="6" t="s">
+        <v>3060</v>
+      </c>
+      <c r="J627" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="K627" s="6" t="s">
         <v>3059</v>
-      </c>
-      <c r="J627" s="1" t="s">
-        <v>3060</v>
-      </c>
-      <c r="K627" s="6" t="s">
-        <v>3058</v>
       </c>
     </row>
     <row r="628" ht="15.75" customHeight="1">
       <c r="B628" s="4" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="D628" s="6" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="G628" s="2"/>
       <c r="H628" s="5"/>
       <c r="I628" s="6" t="s">
+        <v>3065</v>
+      </c>
+      <c r="J628" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="K628" s="6" t="s">
         <v>3064</v>
-      </c>
-      <c r="J628" s="1" t="s">
-        <v>3065</v>
-      </c>
-      <c r="K628" s="6" t="s">
-        <v>3063</v>
       </c>
     </row>
     <row r="629" ht="15.75" customHeight="1">
       <c r="B629" s="4" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="D629" s="6" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="G629" s="2"/>
       <c r="H629" s="5"/>
       <c r="I629" s="6" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="J629" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="K629" s="6" t="s">
         <v>3069</v>
-      </c>
-      <c r="K629" s="6" t="s">
-        <v>3068</v>
       </c>
     </row>
     <row r="630" ht="15.75" customHeight="1">
       <c r="B630" s="4" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="D630" s="6" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="G630" s="2"/>
       <c r="H630" s="5"/>
       <c r="I630" s="6" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="J630" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="K630" s="6" t="s">
         <v>3074</v>
-      </c>
-      <c r="K630" s="6" t="s">
-        <v>3073</v>
       </c>
     </row>
     <row r="631" ht="15.75" customHeight="1">
       <c r="B631" s="7" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="D631" s="6" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="G631" s="2"/>
       <c r="H631" s="5"/>
       <c r="I631" s="6" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="J631" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="K631" s="6" t="s">
         <v>3078</v>
-      </c>
-      <c r="K631" s="6" t="s">
-        <v>3077</v>
       </c>
     </row>
     <row r="632" ht="15.75" customHeight="1">
       <c r="B632" s="4" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="D632" s="11" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="G632" s="2"/>
       <c r="H632" s="5"/>
       <c r="I632" s="6" t="s">
+        <v>3083</v>
+      </c>
+      <c r="J632" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="K632" s="11" t="s">
         <v>3082</v>
-      </c>
-      <c r="J632" s="1" t="s">
-        <v>3083</v>
-      </c>
-      <c r="K632" s="11" t="s">
-        <v>3081</v>
       </c>
     </row>
     <row r="633" ht="15.75" customHeight="1">
       <c r="B633" s="4" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="D633" s="11" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="G633" s="9"/>
       <c r="H633" s="5"/>
       <c r="I633" s="6" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="J633" s="1" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="K633" s="11" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="634" ht="15.75" customHeight="1">
       <c r="B634" s="1" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="D634" s="6" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="G634" s="2"/>
       <c r="H634" s="5"/>
       <c r="I634" s="6" t="s">
+        <v>3094</v>
+      </c>
+      <c r="J634" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="K634" s="6" t="s">
         <v>3093</v>
-      </c>
-      <c r="J634" s="1" t="s">
-        <v>3094</v>
-      </c>
-      <c r="K634" s="6" t="s">
-        <v>3092</v>
       </c>
     </row>
     <row r="635" ht="15.75" customHeight="1">
       <c r="B635" s="7" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="D635" s="6" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="G635" s="2"/>
       <c r="H635" s="5"/>
       <c r="I635" s="6" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="J635" s="1" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="K635" s="6" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="636" ht="15.75" customHeight="1">
@@ -25575,112 +25578,112 @@
         <v>54</v>
       </c>
       <c r="B636" s="7" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="D636" s="6" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="G636" s="2"/>
       <c r="H636" s="5"/>
       <c r="I636" s="6" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="J636" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="K636" s="6" t="s">
         <v>3104</v>
-      </c>
-      <c r="K636" s="6" t="s">
-        <v>3103</v>
       </c>
     </row>
     <row r="637" ht="15.75" customHeight="1">
       <c r="B637" s="1" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="D637" s="6" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="G637" s="2"/>
       <c r="H637" s="5"/>
       <c r="I637" s="6" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="J637" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="K637" s="6" t="s">
         <v>3108</v>
-      </c>
-      <c r="K637" s="6" t="s">
-        <v>3107</v>
       </c>
     </row>
     <row r="638" ht="15.75" customHeight="1">
       <c r="B638" s="7" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="D638" s="6" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="G638" s="2"/>
       <c r="H638" s="5"/>
       <c r="I638" s="6" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="J638" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="K638" s="6" t="s">
         <v>3112</v>
-      </c>
-      <c r="K638" s="6" t="s">
-        <v>3111</v>
       </c>
     </row>
     <row r="639" ht="15.75" customHeight="1">
       <c r="B639" s="1" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="D639" s="6" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="G639" s="2"/>
       <c r="H639" s="5"/>
       <c r="I639" s="6" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="J639" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="K639" s="6" t="s">
         <v>3116</v>
-      </c>
-      <c r="K639" s="6" t="s">
-        <v>3115</v>
       </c>
     </row>
     <row r="640" ht="15.75" customHeight="1">
       <c r="B640" s="7" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D640" s="6" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="G640" s="2"/>
       <c r="H640" s="5"/>
       <c r="I640" s="6" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="J640" s="1" t="s">
+        <v>3122</v>
+      </c>
+      <c r="K640" s="6" t="s">
         <v>3121</v>
-      </c>
-      <c r="K640" s="6" t="s">
-        <v>3120</v>
       </c>
     </row>
     <row r="641" ht="15.75" customHeight="1">
@@ -25688,90 +25691,90 @@
         <v>54</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="D641" s="6" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="G641" s="2"/>
       <c r="H641" s="5"/>
       <c r="I641" s="6" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="J641" s="1" t="s">
+        <v>3126</v>
+      </c>
+      <c r="K641" s="6" t="s">
         <v>3125</v>
-      </c>
-      <c r="K641" s="6" t="s">
-        <v>3124</v>
       </c>
     </row>
     <row r="642" ht="15.75" customHeight="1">
       <c r="B642" s="1" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="D642" s="6" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="G642" s="2"/>
       <c r="H642" s="5"/>
       <c r="I642" s="6" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="J642" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="K642" s="6" t="s">
         <v>3129</v>
-      </c>
-      <c r="K642" s="6" t="s">
-        <v>3128</v>
       </c>
     </row>
     <row r="643" ht="15.75" customHeight="1">
       <c r="B643" s="1" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="D643" s="6" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="G643" s="2"/>
       <c r="H643" s="5"/>
       <c r="I643" s="6" t="s">
+        <v>3134</v>
+      </c>
+      <c r="J643" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="K643" s="6" t="s">
         <v>3133</v>
-      </c>
-      <c r="J643" s="1" t="s">
-        <v>3134</v>
-      </c>
-      <c r="K643" s="6" t="s">
-        <v>3132</v>
       </c>
     </row>
     <row r="644" ht="15.75" customHeight="1">
       <c r="B644" s="4" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="D644" s="6" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="G644" s="2"/>
       <c r="H644" s="5"/>
       <c r="I644" s="6" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="J644" s="1" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="K644" s="6" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="645" ht="15.75" customHeight="1">
@@ -25779,46 +25782,46 @@
         <v>43</v>
       </c>
       <c r="B645" s="7" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="D645" s="6" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="G645" s="2"/>
       <c r="H645" s="5"/>
       <c r="I645" s="6" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="J645" s="4" t="s">
+        <v>3145</v>
+      </c>
+      <c r="K645" s="6" t="s">
         <v>3144</v>
-      </c>
-      <c r="K645" s="6" t="s">
-        <v>3143</v>
       </c>
     </row>
     <row r="646" ht="15.75" customHeight="1">
       <c r="B646" s="1" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="D646" s="6" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="G646" s="2"/>
       <c r="H646" s="5"/>
       <c r="I646" s="6" t="s">
+        <v>3149</v>
+      </c>
+      <c r="J646" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="K646" s="6" t="s">
         <v>3148</v>
-      </c>
-      <c r="J646" s="1" t="s">
-        <v>3149</v>
-      </c>
-      <c r="K646" s="6" t="s">
-        <v>3147</v>
       </c>
     </row>
     <row r="647" ht="15.75" customHeight="1">
@@ -25829,7 +25832,7 @@
         <v>869</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="D647" s="4" t="s">
         <v>871</v>
@@ -25848,24 +25851,24 @@
     </row>
     <row r="648" ht="15.75" customHeight="1">
       <c r="B648" s="7" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="G648" s="2"/>
       <c r="H648" s="5"/>
       <c r="I648" s="4" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="J648" s="1" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="K648" s="4" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="649" ht="15.75" customHeight="1">
@@ -25873,68 +25876,68 @@
         <v>43</v>
       </c>
       <c r="B649" s="7" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="D649" s="6" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="G649" s="2"/>
       <c r="H649" s="5"/>
       <c r="I649" s="6" t="s">
+        <v>3161</v>
+      </c>
+      <c r="J649" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="K649" s="6" t="s">
         <v>3160</v>
-      </c>
-      <c r="J649" s="1" t="s">
-        <v>3161</v>
-      </c>
-      <c r="K649" s="6" t="s">
-        <v>3159</v>
       </c>
     </row>
     <row r="650" ht="15.75" customHeight="1">
       <c r="B650" s="7" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="D650" s="6" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="G650" s="2"/>
       <c r="H650" s="5"/>
       <c r="I650" s="6" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="J650" s="1" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="K650" s="6" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="651" ht="15.75" customHeight="1">
       <c r="B651" s="1" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="D651" s="6" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="G651" s="2"/>
       <c r="H651" s="5"/>
       <c r="I651" s="6" t="s">
+        <v>3172</v>
+      </c>
+      <c r="J651" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="K651" s="6" t="s">
         <v>3171</v>
-      </c>
-      <c r="J651" s="1" t="s">
-        <v>3172</v>
-      </c>
-      <c r="K651" s="6" t="s">
-        <v>3170</v>
       </c>
     </row>
     <row r="652" ht="15.75" customHeight="1">
@@ -25942,68 +25945,68 @@
         <v>43</v>
       </c>
       <c r="B652" s="7" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="D652" s="11" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="G652" s="2"/>
       <c r="H652" s="5"/>
       <c r="I652" s="6" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="J652" s="1" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="K652" s="11" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="653" ht="15.75" customHeight="1">
       <c r="B653" s="7" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="D653" s="6" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="G653" s="2"/>
       <c r="H653" s="5"/>
       <c r="I653" s="6" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="J653" s="1" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="K653" s="6" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="654" ht="15.75" customHeight="1">
       <c r="B654" s="7" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="D654" s="10" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="G654" s="2"/>
       <c r="H654" s="5"/>
       <c r="I654" s="6" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="J654" s="1" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="K654" s="10" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="655" ht="15.75" customHeight="1">
@@ -26011,90 +26014,90 @@
         <v>43</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="D655" s="6" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="G655" s="2"/>
       <c r="H655" s="5"/>
       <c r="I655" s="6" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="J655" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="K655" s="6" t="s">
         <v>3194</v>
-      </c>
-      <c r="K655" s="6" t="s">
-        <v>3193</v>
       </c>
     </row>
     <row r="656" ht="15.75" customHeight="1">
       <c r="B656" s="1" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="D656" s="6" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="G656" s="2"/>
       <c r="H656" s="5"/>
       <c r="I656" s="6" t="s">
+        <v>3199</v>
+      </c>
+      <c r="J656" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="K656" s="6" t="s">
         <v>3198</v>
-      </c>
-      <c r="J656" s="1" t="s">
-        <v>3199</v>
-      </c>
-      <c r="K656" s="6" t="s">
-        <v>3197</v>
       </c>
     </row>
     <row r="657" ht="15.75" customHeight="1">
       <c r="B657" s="1" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="D657" s="6" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="G657" s="2"/>
       <c r="H657" s="5"/>
       <c r="I657" s="6" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="J657" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="K657" s="6" t="s">
         <v>3203</v>
-      </c>
-      <c r="K657" s="6" t="s">
-        <v>3202</v>
       </c>
     </row>
     <row r="658" ht="15.75" customHeight="1">
       <c r="B658" s="1" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="D658" s="6" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="G658" s="2"/>
       <c r="H658" s="5"/>
       <c r="I658" s="6" t="s">
+        <v>3208</v>
+      </c>
+      <c r="J658" s="1" t="s">
+        <v>3209</v>
+      </c>
+      <c r="K658" s="6" t="s">
         <v>3207</v>
-      </c>
-      <c r="J658" s="1" t="s">
-        <v>3208</v>
-      </c>
-      <c r="K658" s="6" t="s">
-        <v>3206</v>
       </c>
     </row>
     <row r="659" ht="15.75" customHeight="1">
@@ -26102,24 +26105,24 @@
         <v>38</v>
       </c>
       <c r="B659" s="7" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="D659" s="6" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="G659" s="2"/>
       <c r="H659" s="5"/>
       <c r="I659" s="6" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="J659" s="4" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="K659" s="6" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="660" ht="15.75" customHeight="1">
@@ -26127,68 +26130,68 @@
         <v>43</v>
       </c>
       <c r="B660" s="7" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="D660" s="6" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="G660" s="2"/>
       <c r="H660" s="5"/>
       <c r="I660" s="6" t="s">
+        <v>3219</v>
+      </c>
+      <c r="J660" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="K660" s="6" t="s">
         <v>3218</v>
-      </c>
-      <c r="J660" s="1" t="s">
-        <v>3219</v>
-      </c>
-      <c r="K660" s="6" t="s">
-        <v>3217</v>
       </c>
     </row>
     <row r="661" ht="15.75" customHeight="1">
       <c r="B661" s="7" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="D661" s="6" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="G661" s="2"/>
       <c r="H661" s="5"/>
       <c r="I661" s="6" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="J661" s="1" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="K661" s="6" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="662" ht="15.75" customHeight="1">
       <c r="B662" s="7" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="D662" s="6" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="G662" s="2"/>
       <c r="H662" s="5"/>
       <c r="I662" s="6" t="s">
+        <v>3230</v>
+      </c>
+      <c r="J662" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="K662" s="6" t="s">
         <v>3229</v>
-      </c>
-      <c r="J662" s="1" t="s">
-        <v>3230</v>
-      </c>
-      <c r="K662" s="6" t="s">
-        <v>3228</v>
       </c>
     </row>
     <row r="663" ht="15.75" customHeight="1">
@@ -26196,68 +26199,68 @@
         <v>38</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="C663" s="4" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="D663" s="6" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="G663" s="2"/>
       <c r="H663" s="5"/>
       <c r="I663" s="6" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="J663" s="4" t="s">
+        <v>3235</v>
+      </c>
+      <c r="K663" s="6" t="s">
         <v>3234</v>
-      </c>
-      <c r="K663" s="6" t="s">
-        <v>3233</v>
       </c>
     </row>
     <row r="664" ht="15.75" customHeight="1">
       <c r="B664" s="4" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="D664" s="6" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="G664" s="2"/>
       <c r="H664" s="5"/>
       <c r="I664" s="6" t="s">
+        <v>3239</v>
+      </c>
+      <c r="J664" s="4" t="s">
+        <v>3240</v>
+      </c>
+      <c r="K664" s="6" t="s">
         <v>3238</v>
-      </c>
-      <c r="J664" s="4" t="s">
-        <v>3239</v>
-      </c>
-      <c r="K664" s="6" t="s">
-        <v>3237</v>
       </c>
     </row>
     <row r="665" ht="15.75" customHeight="1">
       <c r="B665" s="1" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="D665" s="6" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="G665" s="2"/>
       <c r="H665" s="33"/>
       <c r="I665" s="6" t="s">
+        <v>3244</v>
+      </c>
+      <c r="J665" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="K665" s="6" t="s">
         <v>3243</v>
-      </c>
-      <c r="J665" s="1" t="s">
-        <v>3244</v>
-      </c>
-      <c r="K665" s="6" t="s">
-        <v>3242</v>
       </c>
     </row>
     <row r="666" ht="15.75" customHeight="1">
@@ -26265,46 +26268,46 @@
         <v>43</v>
       </c>
       <c r="B666" s="7" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="D666" s="6" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="G666" s="2"/>
       <c r="H666" s="5"/>
       <c r="I666" s="6" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="J666" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="K666" s="6" t="s">
         <v>3249</v>
-      </c>
-      <c r="K666" s="6" t="s">
-        <v>3248</v>
       </c>
     </row>
     <row r="667" ht="15.75" customHeight="1">
       <c r="B667" s="7" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="D667" s="6" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="G667" s="2"/>
       <c r="H667" s="5"/>
       <c r="I667" s="6" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="J667" s="1" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="K667" s="6" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="668" ht="15.75" customHeight="1">
@@ -26312,46 +26315,46 @@
         <v>38</v>
       </c>
       <c r="B668" s="7" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="D668" s="6" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="G668" s="2"/>
       <c r="H668" s="5"/>
       <c r="I668" s="6" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="J668" s="4" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="K668" s="6" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="669" ht="15.75" customHeight="1">
       <c r="B669" s="7" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="D669" s="6" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="G669" s="2"/>
       <c r="H669" s="5"/>
       <c r="I669" s="6" t="s">
+        <v>3266</v>
+      </c>
+      <c r="J669" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="K669" s="6" t="s">
         <v>3265</v>
-      </c>
-      <c r="J669" s="1" t="s">
-        <v>3266</v>
-      </c>
-      <c r="K669" s="6" t="s">
-        <v>3264</v>
       </c>
     </row>
     <row r="670" ht="15.75" customHeight="1">
@@ -26359,291 +26362,291 @@
         <v>43</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="D670" s="6" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="G670" s="2"/>
       <c r="H670" s="5"/>
       <c r="I670" s="6" t="s">
+        <v>3271</v>
+      </c>
+      <c r="J670" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="K670" s="6" t="s">
         <v>3270</v>
-      </c>
-      <c r="J670" s="1" t="s">
-        <v>3271</v>
-      </c>
-      <c r="K670" s="6" t="s">
-        <v>3269</v>
       </c>
     </row>
     <row r="671" ht="15.75" customHeight="1">
       <c r="B671" s="7" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="C671" s="4" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="D671" s="8" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="G671" s="2"/>
       <c r="H671" s="5"/>
       <c r="I671" s="8" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="J671" s="4" t="s">
+        <v>3277</v>
+      </c>
+      <c r="K671" s="8" t="s">
         <v>3276</v>
-      </c>
-      <c r="K671" s="8" t="s">
-        <v>3275</v>
       </c>
     </row>
     <row r="672" ht="15.75" customHeight="1">
       <c r="B672" s="1" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="D672" s="6" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="G672" s="2"/>
       <c r="H672" s="5"/>
       <c r="I672" s="6" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="J672" s="1" t="s">
+        <v>3281</v>
+      </c>
+      <c r="K672" s="6" t="s">
         <v>3280</v>
-      </c>
-      <c r="K672" s="6" t="s">
-        <v>3279</v>
       </c>
     </row>
     <row r="673" ht="15.75" customHeight="1">
       <c r="B673" s="7" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="D673" s="6" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="G673" s="2"/>
       <c r="H673" s="5"/>
       <c r="I673" s="6" t="s">
+        <v>3285</v>
+      </c>
+      <c r="J673" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="K673" s="6" t="s">
         <v>3284</v>
-      </c>
-      <c r="J673" s="1" t="s">
-        <v>3285</v>
-      </c>
-      <c r="K673" s="6" t="s">
-        <v>3283</v>
       </c>
     </row>
     <row r="674" ht="15.75" customHeight="1">
       <c r="B674" s="7" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="D674" s="6" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="G674" s="2"/>
       <c r="H674" s="5"/>
       <c r="I674" s="6" t="s">
+        <v>3290</v>
+      </c>
+      <c r="J674" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="K674" s="6" t="s">
         <v>3289</v>
-      </c>
-      <c r="J674" s="1" t="s">
-        <v>3290</v>
-      </c>
-      <c r="K674" s="6" t="s">
-        <v>3288</v>
       </c>
     </row>
     <row r="675" ht="15.75" customHeight="1">
       <c r="B675" s="1" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="D675" s="6" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="G675" s="2"/>
       <c r="H675" s="5"/>
       <c r="I675" s="6" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="J675" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="K675" s="6" t="s">
         <v>3294</v>
-      </c>
-      <c r="K675" s="6" t="s">
-        <v>3293</v>
       </c>
     </row>
     <row r="676" ht="15.75" customHeight="1">
       <c r="B676" s="1" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="D676" s="6" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="G676" s="2"/>
       <c r="H676" s="5"/>
       <c r="I676" s="6" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="J676" s="1" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="K676" s="6" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="677" ht="15.75" customHeight="1">
       <c r="B677" s="4" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="D677" s="6" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="G677" s="2"/>
       <c r="H677" s="5"/>
       <c r="I677" s="6" t="s">
+        <v>3305</v>
+      </c>
+      <c r="J677" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="K677" s="6" t="s">
         <v>3304</v>
-      </c>
-      <c r="J677" s="1" t="s">
-        <v>3305</v>
-      </c>
-      <c r="K677" s="6" t="s">
-        <v>3303</v>
       </c>
     </row>
     <row r="678" ht="15.75" customHeight="1">
       <c r="B678" s="7" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D678" s="6" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="G678" s="2"/>
       <c r="H678" s="5"/>
       <c r="I678" s="6" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="J678" s="1" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="K678" s="6" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="679" ht="15.75" customHeight="1">
       <c r="B679" s="1" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="D679" s="6" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="G679" s="2"/>
       <c r="H679" s="5"/>
       <c r="I679" s="6" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="J679" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="K679" s="6" t="s">
         <v>3315</v>
-      </c>
-      <c r="K679" s="6" t="s">
-        <v>3314</v>
       </c>
     </row>
     <row r="680" ht="15.75" customHeight="1">
       <c r="B680" s="1" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="D680" s="6" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="G680" s="2"/>
       <c r="H680" s="5"/>
       <c r="I680" s="6" t="s">
+        <v>3320</v>
+      </c>
+      <c r="J680" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="K680" s="6" t="s">
         <v>3319</v>
-      </c>
-      <c r="J680" s="1" t="s">
-        <v>3320</v>
-      </c>
-      <c r="K680" s="6" t="s">
-        <v>3318</v>
       </c>
     </row>
     <row r="681" ht="15.75" customHeight="1">
       <c r="A681" s="1" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="B681" s="7" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="C681" s="4" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="D681" s="6" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="G681" s="2"/>
       <c r="H681" s="5"/>
       <c r="I681" s="6" t="s">
+        <v>3326</v>
+      </c>
+      <c r="J681" s="4" t="s">
+        <v>3327</v>
+      </c>
+      <c r="K681" s="6" t="s">
         <v>3325</v>
-      </c>
-      <c r="J681" s="4" t="s">
-        <v>3326</v>
-      </c>
-      <c r="K681" s="6" t="s">
-        <v>3324</v>
       </c>
     </row>
     <row r="682" ht="15.75" customHeight="1">
       <c r="B682" s="1" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="D682" s="6" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="G682" s="2"/>
       <c r="H682" s="5"/>
       <c r="I682" s="6" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="J682" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="K682" s="6" t="s">
         <v>3331</v>
-      </c>
-      <c r="K682" s="6" t="s">
-        <v>3330</v>
       </c>
     </row>
     <row r="683" ht="15.75" customHeight="1">
@@ -26651,68 +26654,68 @@
         <v>54</v>
       </c>
       <c r="B683" s="7" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="D683" s="6" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="G683" s="2"/>
       <c r="H683" s="5"/>
       <c r="I683" s="6" t="s">
+        <v>3336</v>
+      </c>
+      <c r="J683" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="K683" s="6" t="s">
         <v>3335</v>
-      </c>
-      <c r="J683" s="1" t="s">
-        <v>3336</v>
-      </c>
-      <c r="K683" s="6" t="s">
-        <v>3334</v>
       </c>
     </row>
     <row r="684" ht="15.75" customHeight="1">
       <c r="B684" s="1" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="D684" s="6" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="G684" s="2"/>
       <c r="H684" s="5"/>
       <c r="I684" s="6" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="J684" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="K684" s="6" t="s">
         <v>3340</v>
-      </c>
-      <c r="K684" s="6" t="s">
-        <v>3339</v>
       </c>
     </row>
     <row r="685" ht="15.75" customHeight="1">
       <c r="B685" s="7" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="D685" s="6" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="G685" s="2"/>
       <c r="H685" s="5"/>
       <c r="I685" s="6" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="J685" s="1" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="K685" s="6" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="686" ht="15.75" customHeight="1">
@@ -26720,90 +26723,90 @@
         <v>22</v>
       </c>
       <c r="B686" s="7" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="C686" s="4" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="D686" s="6" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="G686" s="2"/>
       <c r="H686" s="5"/>
       <c r="I686" s="6" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="J686" s="4" t="s">
+        <v>3351</v>
+      </c>
+      <c r="K686" s="6" t="s">
         <v>3350</v>
-      </c>
-      <c r="K686" s="6" t="s">
-        <v>3349</v>
       </c>
     </row>
     <row r="687" ht="15.75" customHeight="1">
       <c r="B687" s="7" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="D687" s="6" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="G687" s="2"/>
       <c r="H687" s="5"/>
       <c r="I687" s="6" t="s">
+        <v>3355</v>
+      </c>
+      <c r="J687" s="4" t="s">
+        <v>3356</v>
+      </c>
+      <c r="K687" s="6" t="s">
         <v>3354</v>
-      </c>
-      <c r="J687" s="4" t="s">
-        <v>3355</v>
-      </c>
-      <c r="K687" s="6" t="s">
-        <v>3353</v>
       </c>
     </row>
     <row r="688" ht="15.75" customHeight="1">
       <c r="B688" s="1" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="D688" s="6" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="G688" s="2"/>
       <c r="H688" s="5"/>
       <c r="I688" s="6" t="s">
+        <v>3360</v>
+      </c>
+      <c r="J688" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="K688" s="6" t="s">
         <v>3359</v>
-      </c>
-      <c r="J688" s="1" t="s">
-        <v>3360</v>
-      </c>
-      <c r="K688" s="6" t="s">
-        <v>3358</v>
       </c>
     </row>
     <row r="689" ht="15.75" customHeight="1">
       <c r="B689" s="1" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="D689" s="6" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="G689" s="2"/>
       <c r="H689" s="5"/>
       <c r="I689" s="6" t="s">
+        <v>3365</v>
+      </c>
+      <c r="J689" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="K689" s="6" t="s">
         <v>3364</v>
-      </c>
-      <c r="J689" s="1" t="s">
-        <v>3365</v>
-      </c>
-      <c r="K689" s="6" t="s">
-        <v>3363</v>
       </c>
     </row>
     <row r="690" ht="15.75" customHeight="1">
@@ -26811,46 +26814,46 @@
         <v>22</v>
       </c>
       <c r="B690" s="7" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="C690" s="4" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="D690" s="4" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="G690" s="2"/>
       <c r="H690" s="5"/>
       <c r="I690" s="4" t="s">
+        <v>3370</v>
+      </c>
+      <c r="J690" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="K690" s="4" t="s">
         <v>3369</v>
-      </c>
-      <c r="J690" s="1" t="s">
-        <v>3370</v>
-      </c>
-      <c r="K690" s="4" t="s">
-        <v>3368</v>
       </c>
     </row>
     <row r="691" ht="15.75" customHeight="1">
       <c r="B691" s="7" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="D691" s="4" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="G691" s="2"/>
       <c r="H691" s="5"/>
       <c r="I691" s="4" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="J691" s="4" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="K691" s="4" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="692" ht="15.75" customHeight="1">
@@ -26858,90 +26861,90 @@
         <v>22</v>
       </c>
       <c r="B692" s="7" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="D692" s="6" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="G692" s="2"/>
       <c r="H692" s="5"/>
       <c r="I692" s="6" t="s">
+        <v>3381</v>
+      </c>
+      <c r="J692" s="1" t="s">
+        <v>3382</v>
+      </c>
+      <c r="K692" s="6" t="s">
         <v>3380</v>
-      </c>
-      <c r="J692" s="1" t="s">
-        <v>3381</v>
-      </c>
-      <c r="K692" s="6" t="s">
-        <v>3379</v>
       </c>
     </row>
     <row r="693" ht="15.75" customHeight="1">
       <c r="B693" s="1" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="D693" s="6" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="G693" s="2"/>
       <c r="H693" s="5"/>
       <c r="I693" s="6" t="s">
+        <v>3386</v>
+      </c>
+      <c r="J693" s="1" t="s">
+        <v>3387</v>
+      </c>
+      <c r="K693" s="6" t="s">
         <v>3385</v>
-      </c>
-      <c r="J693" s="1" t="s">
-        <v>3386</v>
-      </c>
-      <c r="K693" s="6" t="s">
-        <v>3384</v>
       </c>
     </row>
     <row r="694" ht="15.75" customHeight="1">
       <c r="B694" s="1" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="D694" s="6" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="G694" s="2"/>
       <c r="H694" s="5"/>
       <c r="I694" s="6" t="s">
+        <v>3391</v>
+      </c>
+      <c r="J694" s="1" t="s">
+        <v>3392</v>
+      </c>
+      <c r="K694" s="6" t="s">
         <v>3390</v>
-      </c>
-      <c r="J694" s="1" t="s">
-        <v>3391</v>
-      </c>
-      <c r="K694" s="6" t="s">
-        <v>3389</v>
       </c>
     </row>
     <row r="695" ht="15.75" customHeight="1">
       <c r="B695" s="7" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="D695" s="6" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="G695" s="2"/>
       <c r="H695" s="5"/>
       <c r="I695" s="6" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="J695" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="K695" s="6" t="s">
         <v>3396</v>
-      </c>
-      <c r="K695" s="6" t="s">
-        <v>3395</v>
       </c>
     </row>
     <row r="696" ht="15.75" customHeight="1">
@@ -26949,24 +26952,24 @@
         <v>54</v>
       </c>
       <c r="B696" s="7" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="D696" s="6" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="G696" s="2"/>
       <c r="H696" s="5"/>
       <c r="I696" s="6" t="s">
+        <v>3401</v>
+      </c>
+      <c r="J696" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="K696" s="6" t="s">
         <v>3400</v>
-      </c>
-      <c r="J696" s="1" t="s">
-        <v>3401</v>
-      </c>
-      <c r="K696" s="6" t="s">
-        <v>3399</v>
       </c>
     </row>
     <row r="697" ht="15.75" customHeight="1">
@@ -26974,68 +26977,68 @@
         <v>22</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="C697" s="4" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="D697" s="6" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="G697" s="2"/>
       <c r="H697" s="5"/>
       <c r="I697" s="6" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="J697" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="K697" s="6" t="s">
         <v>3405</v>
-      </c>
-      <c r="K697" s="6" t="s">
-        <v>3404</v>
       </c>
     </row>
     <row r="698" ht="15.75" customHeight="1">
       <c r="B698" s="7" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="C698" s="4" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="D698" s="8" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="G698" s="2"/>
       <c r="H698" s="5"/>
       <c r="I698" s="8" t="s">
+        <v>3410</v>
+      </c>
+      <c r="J698" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="K698" s="8" t="s">
         <v>3409</v>
-      </c>
-      <c r="J698" s="1" t="s">
-        <v>3410</v>
-      </c>
-      <c r="K698" s="8" t="s">
-        <v>3408</v>
       </c>
     </row>
     <row r="699" ht="15.75" customHeight="1">
       <c r="B699" s="7" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="D699" s="8" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="G699" s="2"/>
       <c r="H699" s="5"/>
       <c r="I699" s="8" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="J699" s="1" t="s">
+        <v>3415</v>
+      </c>
+      <c r="K699" s="8" t="s">
         <v>3414</v>
-      </c>
-      <c r="K699" s="8" t="s">
-        <v>3413</v>
       </c>
     </row>
     <row r="700" ht="15.75" customHeight="1">
@@ -27043,46 +27046,46 @@
         <v>54</v>
       </c>
       <c r="B700" s="7" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="D700" s="6" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="G700" s="2"/>
       <c r="H700" s="5"/>
       <c r="I700" s="6" t="s">
+        <v>3419</v>
+      </c>
+      <c r="J700" s="1" t="s">
+        <v>3420</v>
+      </c>
+      <c r="K700" s="6" t="s">
         <v>3418</v>
-      </c>
-      <c r="J700" s="1" t="s">
-        <v>3419</v>
-      </c>
-      <c r="K700" s="6" t="s">
-        <v>3417</v>
       </c>
     </row>
     <row r="701" ht="15.75" customHeight="1">
       <c r="B701" s="7" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="D701" s="6" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="G701" s="2"/>
       <c r="H701" s="5"/>
       <c r="I701" s="6" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="J701" s="1" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="K701" s="6" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="702" ht="15.75" customHeight="1">
@@ -27090,68 +27093,68 @@
         <v>54</v>
       </c>
       <c r="B702" s="7" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="D702" s="6" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="G702" s="2"/>
       <c r="H702" s="5"/>
       <c r="I702" s="6" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="J702" s="1" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="K702" s="6" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="703" ht="15.75" customHeight="1">
       <c r="B703" s="7" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D703" s="6" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="G703" s="2"/>
       <c r="H703" s="5"/>
       <c r="I703" s="6" t="s">
+        <v>3436</v>
+      </c>
+      <c r="J703" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="K703" s="6" t="s">
         <v>3435</v>
-      </c>
-      <c r="J703" s="1" t="s">
-        <v>3436</v>
-      </c>
-      <c r="K703" s="6" t="s">
-        <v>3434</v>
       </c>
     </row>
     <row r="704" ht="15.75" customHeight="1">
       <c r="B704" s="1" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="D704" s="6" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="G704" s="9"/>
       <c r="H704" s="5"/>
       <c r="I704" s="6" t="s">
+        <v>3441</v>
+      </c>
+      <c r="J704" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="K704" s="6" t="s">
         <v>3440</v>
-      </c>
-      <c r="J704" s="1" t="s">
-        <v>3441</v>
-      </c>
-      <c r="K704" s="6" t="s">
-        <v>3439</v>
       </c>
     </row>
     <row r="705" ht="15.75" customHeight="1">
@@ -27159,24 +27162,24 @@
         <v>54</v>
       </c>
       <c r="B705" s="7" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="D705" s="6" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="G705" s="2"/>
       <c r="H705" s="5"/>
       <c r="I705" s="6" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="J705" s="1" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="K705" s="6" t="s">
-        <v>3447</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="706" ht="15.75" customHeight="1">
@@ -27184,90 +27187,90 @@
         <v>54</v>
       </c>
       <c r="B706" s="7" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="D706" s="6" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="G706" s="2"/>
       <c r="H706" s="5"/>
       <c r="I706" s="6" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="J706" s="1" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="K706" s="6" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="707" ht="15.75" customHeight="1">
       <c r="B707" s="4" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="D707" s="6" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="G707" s="2"/>
       <c r="H707" s="5"/>
       <c r="I707" s="6" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="J707" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="K707" s="6" t="s">
         <v>3457</v>
-      </c>
-      <c r="K707" s="6" t="s">
-        <v>3456</v>
       </c>
     </row>
     <row r="708" ht="15.75" customHeight="1">
       <c r="B708" s="4" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="D708" s="6" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="G708" s="2"/>
       <c r="H708" s="5"/>
       <c r="I708" s="6" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="J708" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="K708" s="6" t="s">
         <v>3461</v>
-      </c>
-      <c r="K708" s="6" t="s">
-        <v>3460</v>
       </c>
     </row>
     <row r="709" ht="15.75" customHeight="1">
       <c r="B709" s="4" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="D709" s="6" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="G709" s="2"/>
       <c r="H709" s="5"/>
       <c r="I709" s="6" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="J709" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="K709" s="6" t="s">
         <v>3465</v>
-      </c>
-      <c r="K709" s="6" t="s">
-        <v>3464</v>
       </c>
     </row>
     <row r="710" ht="15.75" customHeight="1">
@@ -27275,134 +27278,134 @@
         <v>54</v>
       </c>
       <c r="B710" s="7" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="D710" s="6" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="G710" s="2"/>
       <c r="H710" s="5"/>
       <c r="I710" s="6" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="J710" s="1" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="K710" s="6" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="711" ht="15.75" customHeight="1">
       <c r="B711" s="1" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="D711" s="6" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="G711" s="2"/>
       <c r="H711" s="5"/>
       <c r="I711" s="6" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="J711" s="1" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="K711" s="6" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="712" ht="15.75" customHeight="1">
       <c r="B712" s="7" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="D712" s="6" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="G712" s="2"/>
       <c r="H712" s="5"/>
       <c r="I712" s="6" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="J712" s="1" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="K712" s="6" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="713" ht="15.75" customHeight="1">
       <c r="B713" s="7" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="D713" s="6" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="G713" s="2"/>
       <c r="H713" s="5"/>
       <c r="I713" s="6" t="s">
+        <v>3488</v>
+      </c>
+      <c r="J713" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="K713" s="6" t="s">
         <v>3487</v>
-      </c>
-      <c r="J713" s="1" t="s">
-        <v>3488</v>
-      </c>
-      <c r="K713" s="6" t="s">
-        <v>3486</v>
       </c>
     </row>
     <row r="714" ht="15.75" customHeight="1">
       <c r="B714" s="1" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="D714" s="6" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="G714" s="2"/>
       <c r="H714" s="5"/>
       <c r="I714" s="6" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="J714" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="K714" s="6" t="s">
         <v>3492</v>
-      </c>
-      <c r="K714" s="6" t="s">
-        <v>3491</v>
       </c>
     </row>
     <row r="715" ht="15.75" customHeight="1">
       <c r="B715" s="1" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="D715" s="6" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="G715" s="2"/>
       <c r="H715" s="5"/>
       <c r="I715" s="6" t="s">
+        <v>3497</v>
+      </c>
+      <c r="J715" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="K715" s="6" t="s">
         <v>3496</v>
-      </c>
-      <c r="J715" s="1" t="s">
-        <v>3497</v>
-      </c>
-      <c r="K715" s="6" t="s">
-        <v>3495</v>
       </c>
     </row>
     <row r="716" ht="15.75" customHeight="1">
@@ -27410,68 +27413,68 @@
         <v>54</v>
       </c>
       <c r="B716" s="7" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="D716" s="6" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="G716" s="2"/>
       <c r="H716" s="5"/>
       <c r="I716" s="6" t="s">
+        <v>3502</v>
+      </c>
+      <c r="J716" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="K716" s="6" t="s">
         <v>3501</v>
-      </c>
-      <c r="J716" s="1" t="s">
-        <v>3502</v>
-      </c>
-      <c r="K716" s="6" t="s">
-        <v>3500</v>
       </c>
     </row>
     <row r="717" ht="15.75" customHeight="1">
       <c r="B717" s="7" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="D717" s="6" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="G717" s="2"/>
       <c r="H717" s="5"/>
       <c r="I717" s="6" t="s">
+        <v>3507</v>
+      </c>
+      <c r="J717" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="K717" s="6" t="s">
         <v>3506</v>
-      </c>
-      <c r="J717" s="1" t="s">
-        <v>3507</v>
-      </c>
-      <c r="K717" s="6" t="s">
-        <v>3505</v>
       </c>
     </row>
     <row r="718" ht="15.75" customHeight="1">
       <c r="B718" s="7" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="D718" s="6" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="G718" s="2"/>
       <c r="H718" s="5"/>
       <c r="I718" s="6" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="J718" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="K718" s="6" t="s">
         <v>3511</v>
-      </c>
-      <c r="K718" s="6" t="s">
-        <v>3510</v>
       </c>
     </row>
     <row r="719" ht="15.75" customHeight="1">
@@ -27479,266 +27482,266 @@
         <v>22</v>
       </c>
       <c r="B719" s="7" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="C719" s="4" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="D719" s="6" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="G719" s="2"/>
       <c r="H719" s="5"/>
       <c r="I719" s="6" t="s">
+        <v>3516</v>
+      </c>
+      <c r="J719" s="4" t="s">
+        <v>3517</v>
+      </c>
+      <c r="K719" s="6" t="s">
         <v>3515</v>
-      </c>
-      <c r="J719" s="4" t="s">
-        <v>3516</v>
-      </c>
-      <c r="K719" s="6" t="s">
-        <v>3514</v>
       </c>
     </row>
     <row r="720" ht="15.75" customHeight="1">
       <c r="B720" s="7" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="D720" s="6" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="G720" s="2"/>
       <c r="H720" s="5"/>
       <c r="I720" s="6" t="s">
+        <v>3521</v>
+      </c>
+      <c r="J720" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="K720" s="6" t="s">
         <v>3520</v>
-      </c>
-      <c r="J720" s="1" t="s">
-        <v>3521</v>
-      </c>
-      <c r="K720" s="6" t="s">
-        <v>3519</v>
       </c>
     </row>
     <row r="721" ht="15.75" customHeight="1">
       <c r="B721" s="1" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="C721" s="1" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="D721" s="6" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="G721" s="2"/>
       <c r="H721" s="5"/>
       <c r="I721" s="6" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="J721" s="1" t="s">
+        <v>3526</v>
+      </c>
+      <c r="K721" s="6" t="s">
         <v>3525</v>
-      </c>
-      <c r="K721" s="6" t="s">
-        <v>3524</v>
       </c>
     </row>
     <row r="722" ht="15.75" customHeight="1">
       <c r="B722" s="1" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="D722" s="6" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="G722" s="2"/>
       <c r="H722" s="5"/>
       <c r="I722" s="6" t="s">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="J722" s="1" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="K722" s="6" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="723" ht="15.75" customHeight="1">
       <c r="B723" s="1" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
       <c r="D723" s="11" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="G723" s="2"/>
       <c r="H723" s="5"/>
       <c r="I723" s="6" t="s">
+        <v>3536</v>
+      </c>
+      <c r="J723" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="K723" s="11" t="s">
         <v>3535</v>
-      </c>
-      <c r="J723" s="1" t="s">
-        <v>3536</v>
-      </c>
-      <c r="K723" s="11" t="s">
-        <v>3534</v>
       </c>
     </row>
     <row r="724" ht="15.75" customHeight="1">
       <c r="B724" s="7" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="D724" s="6" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="G724" s="2"/>
       <c r="H724" s="5"/>
       <c r="I724" s="6" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="J724" s="1" t="s">
+        <v>3542</v>
+      </c>
+      <c r="K724" s="6" t="s">
         <v>3541</v>
-      </c>
-      <c r="K724" s="6" t="s">
-        <v>3540</v>
       </c>
     </row>
     <row r="725" ht="15.75" customHeight="1">
       <c r="B725" s="4" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="D725" s="6" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="G725" s="2"/>
       <c r="H725" s="5"/>
       <c r="I725" s="6" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="J725" s="1" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="K725" s="6" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="726" ht="15.75" customHeight="1">
       <c r="B726" s="4" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="D726" s="6" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="G726" s="2"/>
       <c r="H726" s="5"/>
       <c r="I726" s="6" t="s">
+        <v>3552</v>
+      </c>
+      <c r="J726" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="K726" s="6" t="s">
         <v>3551</v>
-      </c>
-      <c r="J726" s="1" t="s">
-        <v>3552</v>
-      </c>
-      <c r="K726" s="6" t="s">
-        <v>3550</v>
       </c>
     </row>
     <row r="727" ht="15.75" customHeight="1">
       <c r="B727" s="1" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="D727" s="6" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="G727" s="2"/>
       <c r="H727" s="5"/>
       <c r="I727" s="6" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="J727" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="K727" s="6" t="s">
         <v>3557</v>
-      </c>
-      <c r="K727" s="6" t="s">
-        <v>3556</v>
       </c>
     </row>
     <row r="728" ht="15.75" customHeight="1">
       <c r="B728" s="1" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="D728" s="6" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="G728" s="2"/>
       <c r="H728" s="5"/>
       <c r="I728" s="6" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="J728" s="1" t="s">
+        <v>3563</v>
+      </c>
+      <c r="K728" s="6" t="s">
         <v>3562</v>
-      </c>
-      <c r="K728" s="6" t="s">
-        <v>3561</v>
       </c>
     </row>
     <row r="729" ht="15.75" customHeight="1">
       <c r="B729" s="7" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="D729" s="6" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="G729" s="2"/>
       <c r="H729" s="5"/>
       <c r="I729" s="6" t="s">
-        <v>3566</v>
+        <v>3567</v>
       </c>
       <c r="J729" s="1" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="K729" s="6" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="730" ht="15.75" customHeight="1">
       <c r="B730" s="7" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="D730" s="6" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="G730" s="2"/>
       <c r="H730" s="5"/>
       <c r="I730" s="6" t="s">
+        <v>3573</v>
+      </c>
+      <c r="J730" s="1" t="s">
+        <v>3574</v>
+      </c>
+      <c r="K730" s="6" t="s">
         <v>3572</v>
-      </c>
-      <c r="J730" s="1" t="s">
-        <v>3573</v>
-      </c>
-      <c r="K730" s="6" t="s">
-        <v>3571</v>
       </c>
     </row>
     <row r="731" ht="15.75" customHeight="1">
